--- a/data/temperatuur_eu.xlsx
+++ b/data/temperatuur_eu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thom Mekelenkamp\Documents\GitHub\ProgrammeerProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomm\Documents\GitHub\ProgrammeerProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Romania</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Maximum temperature recorded ( to see if more extre weather will appear)</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>source:</t>
   </si>
   <si>
@@ -279,6 +276,27 @@
   </si>
   <si>
     <t>Moscow</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Kiev</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Chisinau</t>
+  </si>
+  <si>
+    <t>No data</t>
   </si>
 </sst>
 </file>
@@ -605,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,22 +634,23 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -651,7 +670,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -670,8 +689,12 @@
       <c r="F4">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f>A4&amp;".."&amp;B4&amp;".."&amp;C4&amp;".."&amp;D4&amp;".."&amp;E4&amp;".."&amp;F4</f>
+        <v>Romania..Bucharest..36..41..35..36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -690,8 +713,12 @@
       <c r="F5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H46" si="0">A5&amp;".."&amp;B5&amp;".."&amp;C5&amp;".."&amp;D5&amp;".."&amp;E5&amp;".."&amp;F5</f>
+        <v>Bulgaria..Sofia..36..41..33..35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -710,8 +737,12 @@
       <c r="F6">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Malta..Valletta..37..39..36..33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -730,8 +761,12 @@
       <c r="F7">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Slovakia..Bratislava..35..37..34..32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -750,8 +785,12 @@
       <c r="F8">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hungary..Budapest..34..38..34..32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -770,8 +809,12 @@
       <c r="F9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Poland..Warsaw..35..35..28..26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -788,10 +831,14 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Latvia..Riga..33..31..35..No data</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -805,13 +852,17 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Croatia..Zagreb..36..38..No data..No data</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -830,8 +881,12 @@
       <c r="F12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Luxembourg..Luxembourg..35..30..33..30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -850,8 +905,12 @@
       <c r="F13">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Netherlands..Amsterdam..33..33..34..28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -870,8 +929,12 @@
       <c r="F14">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>United Kingdom..London..31..31..36..29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -882,16 +945,20 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Greece..Athens..37..No data..No data..No data</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -902,16 +969,20 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>Lithuania..Vilnius..33..No data..No data..No data</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -930,8 +1001,12 @@
       <c r="F17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>France..Paris..33..32..37..31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -950,8 +1025,12 @@
       <c r="F18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>Belgium..Brussels..33..32..35..30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -970,8 +1049,12 @@
       <c r="F19">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>Denmark..Copenhagen..29..30..27..26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -990,8 +1073,12 @@
       <c r="F20">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ireland..Dublin..23..25..29..21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1010,8 +1097,12 @@
       <c r="F21">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>Germany..Berlin..37..34..32..31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1030,8 +1121,12 @@
       <c r="F22">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>Austria..Vienna..33..37..32..31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1050,8 +1145,12 @@
       <c r="F23">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>Italy..Rome..38..38..54..36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1070,8 +1169,12 @@
       <c r="F24">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>Portugal..Lisbon..39..37..39..35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1090,8 +1193,12 @@
       <c r="F25">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>Slovenia..Ljubljana..34..33..33..32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1110,8 +1217,12 @@
       <c r="F26">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>Spain..Madrid..37..38..39..39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1130,8 +1241,12 @@
       <c r="F27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>Sweden..Stockholm..31..25..27..26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1150,8 +1265,12 @@
       <c r="F28">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>Czech Republic..Prague..34..33..33..31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1162,16 +1281,20 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>Estonia..Tallinn..32..No data..No data..No data</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1188,10 +1311,14 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>Finland..Helsinki..31..28..29..No data</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1210,8 +1337,12 @@
       <c r="F31">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>Cyprus..Nicosia..35..37..32..33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1222,16 +1353,20 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>Kosovo ..Pristina..36..No data..No data..No data</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1250,8 +1385,12 @@
       <c r="F33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>Turkey..Ankara..38..41..33..39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1270,8 +1409,12 @@
       <c r="F34">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>Macedonia..Skopje..38..41..37..38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1290,8 +1433,12 @@
       <c r="F35">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>Albania..Tirana..37..40..36..36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1310,8 +1457,12 @@
       <c r="F36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>Serbia..Belgrade..37..41..35..33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1325,13 +1476,17 @@
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>Liechtenstein..Vaduz..33..29..No data..No data</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1350,8 +1505,12 @@
       <c r="F38">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>Bosnia and Herzegovina ..Sarajevo..36..39..32..34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1368,10 +1527,14 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>Montenegro..Podgorica..38..40..38..No data</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1388,10 +1551,14 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>Switzerland..Bern..34..30..32..No data</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1410,8 +1577,12 @@
       <c r="F41">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>Norway..Oslo..24..25..26..28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -1430,13 +1601,17 @@
       <c r="F42">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>Iceland..Reykjavik..20..19..20..23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
       </c>
       <c r="C43">
         <v>38</v>
@@ -1449,6 +1624,82 @@
       </c>
       <c r="F43">
         <v>30</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>Russia..Moscow..38..29..29..30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>Belarus..Minsk..35..32..No data..No data</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>Ukraine..Kiev..38..36..29..30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>Moldova..Chisinau..37..38..37..No data</v>
       </c>
     </row>
   </sheetData>
